--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/软硬件.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/软硬件.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\18558\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kingshuo\suiyu\finance_back444444\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C640076-834C-4171-94FE-65911D0161D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E7909F-FDDC-4BCC-8264-33B003D66372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="32400" windowHeight="19395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7650" yWindow="6885" windowWidth="32400" windowHeight="19395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>工序编号</t>
   </si>
@@ -59,13 +59,21 @@
   </si>
   <si>
     <t>软件单价</t>
+  </si>
+  <si>
+    <t>追溯软件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>追溯软件费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -82,6 +90,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -125,9 +140,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -444,18 +462,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="30" customWidth="1"/>
+    <col min="1" max="15" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,18 +504,24 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/软硬件.xlsx
+++ b/aspnet-core/src/Finance.Web.Host/wwwroot/Excel/软硬件.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kingshuo\suiyu\finance_back444444\aspnet-core\src\Finance.Web.Host\wwwroot\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E7909F-FDDC-4BCC-8264-33B003D66372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055BBACE-52D4-4F96-9BAB-74BF6E7481D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7650" yWindow="6885" windowWidth="32400" windowHeight="19395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>工序编号</t>
   </si>
@@ -66,6 +66,10 @@
   </si>
   <si>
     <t>追溯软件费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件供应商</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -462,18 +466,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="15" width="30" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -518,6 +523,9 @@
       </c>
       <c r="O1" s="1" t="s">
         <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
